--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1278 +397,1381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>9.662416032530651</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.8442897455598958</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.993555407882371</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="F2">
         <v>3.64156662350461</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>9.928476601929569</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.3907596129899135</v>
       </c>
-      <c r="H2" t="n">
-        <v>28.46106402439701</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>29.29176883640686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>9.922645035748692</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.000639698441358</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3.071965698371054</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="F3">
         <v>3.157921056320405</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>8.444911132675724</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H3" t="n">
-        <v>25.76555102712434</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>26.90777014363788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10.02447377613836</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.188259641899112</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3.276763411595791</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="F4">
         <v>3.015672360089756</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>9.357874498370398</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H4" t="n">
-        <v>26.97468929180482</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>28.11690840831836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>11.74424805827496</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.063179679593943</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.60794854755658</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>1.557571522518465</v>
+      </c>
+      <c r="F5">
         <v>3.926064015965907</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>9.814356181217732</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.4465824148456156</v>
       </c>
-      <c r="H5" t="n">
-        <v>31.60237889745474</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>33.15995041997321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>11.50664766403241</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.9068297267124805</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4.095954264494739</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="F6">
         <v>3.81226505898139</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>9.928476601929569</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H6" t="n">
-        <v>30.58511012728479</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>31.93500544680079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>13.10196459680385</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.8755597361361881</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4.403150834331844</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1.453733421017234</v>
+      </c>
+      <c r="F7">
         <v>3.129471317074275</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>8.787272394811225</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.5582280185570194</v>
       </c>
-      <c r="H7" t="n">
-        <v>30.85564689771441</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>32.30938031873164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>14.55019557123468</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.6879397926784333</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>6.04153254012974</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>2.388276334528312</v>
+      </c>
+      <c r="F8">
         <v>3.357069231043313</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>6.162502718439041</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.6140508204127213</v>
       </c>
-      <c r="H8" t="n">
-        <v>31.41329067393792</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>33.80156700846624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>16.86962799122156</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.437779868068094</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5.017543974006055</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>2.907466842034467</v>
+      </c>
+      <c r="F9">
         <v>1.650084876275527</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>5.363659773456201</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H9" t="n">
-        <v>29.56198769045024</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>32.46945453248471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>18.89488849452716</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.4065098774918017</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3.174364554983423</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>4.25736216155047</v>
+      </c>
+      <c r="F10">
         <v>1.109539830599061</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>6.048382297727207</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H10" t="n">
-        <v>29.74533065904006</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>34.00269282059053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>13.13590751026707</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.5315898397969715</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.638381705797896</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>4.153524060049239</v>
+      </c>
+      <c r="F11">
         <v>1.137989569845191</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>6.162502718439041</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H11" t="n">
-        <v>22.71801694785758</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>26.87154100790681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>10.42047443320929</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.6566698021021412</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2.457572558696843</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>3.115143045036929</v>
+      </c>
+      <c r="F12">
         <v>0.7681429596455039</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>8.559031553387557</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>22.86189130704133</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>25.97703435207826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>9.221158157508762</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.6879397926784333</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1.843179419022632</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="F13">
         <v>0.7965926988916336</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>5.021298511320698</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>17.57016857942216</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>18.60854959443447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5.849495420162003</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.5628598303732637</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.33118513596079</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>1.557571522518465</v>
+      </c>
+      <c r="F14">
         <v>0.6543440026609847</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>5.82014145630354</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>14.21802584546058</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>15.77559736797905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3.711091871978986</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.5628598303732637</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F15">
         <v>0.3129471317074274</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>4.222455566337862</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>9.116550970234645</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>10.05109388374572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.82160302252627</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.5315898397969715</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.1023988566123685</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="F16">
         <v>0.5689947849225954</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>3.994214724914193</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H16" t="n">
-        <v>7.074624030628101</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>7.801490741136718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1.289830711602453</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="F17">
         <v>0.5974445241687252</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>3.880094304202359</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>6.253597168384905</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>6.668949574389829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.8938300545315242</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.5120953064303359</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>3.423612621355023</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>5.324354495611743</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.8146299231173384</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.3126999057629243</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.2076762030024619</v>
+      </c>
+      <c r="F19">
         <v>0.4836455671842062</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>5.249539352744369</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>7.167711318645943</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>7.375387521648405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1.402973756479861</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.3126999057629243</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="F20">
         <v>0.7396932203993741</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>9.58611533979407</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H20" t="n">
-        <v>12.40450159412904</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>12.81985400013396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>4.60492192651051</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3126999057629243</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.023988566123685</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>2.07676203002462</v>
+      </c>
+      <c r="F21">
         <v>0.881941916630023</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>13.92269132684376</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H21" t="n">
-        <v>20.80206644372661</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>22.87882847375122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>10.2847027793564</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.764769128533949</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>4.465038364552932</v>
+      </c>
+      <c r="F22">
         <v>2.44667757516716</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>15.0638955339621</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H22" t="n">
-        <v>31.03349614905276</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>35.4985345136057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>16.05499806810421</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.437779868068094</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>3.993555407882371</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>4.049685958548007</v>
+      </c>
+      <c r="F23">
         <v>2.702725228382328</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>12.78148711972542</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H23" t="n">
-        <v>36.30548250329663</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>40.35516846184464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>19.00803153940457</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.9380997172887729</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>4.505549690944212</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>4.361200263051701</v>
+      </c>
+      <c r="F24">
         <v>3.584667145012351</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>12.43912585758992</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.3907596129899135</v>
       </c>
-      <c r="H24" t="n">
-        <v>40.86623356322973</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>45.22743382628143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>12.309963282662</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.6253998115258486</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>4.71034740416895</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="F25">
         <v>3.328619491797184</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>13.23796880257276</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.4465824148456156</v>
       </c>
-      <c r="H25" t="n">
-        <v>34.65888120757236</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>36.94331944059944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>10.12630251652803</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.8442897455598958</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3.993555407882371</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="F26">
         <v>4.096762451442687</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>10.84143996762424</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.3907596129899135</v>
       </c>
-      <c r="H26" t="n">
-        <v>30.29310970202714</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>31.22765261553822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>10.0923596030648</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.9693697078650654</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.969566841758686</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="F27">
         <v>4.466609061642374</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>10.95556038833607</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H27" t="n">
-        <v>29.67675681008981</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>30.81897592660335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>9.492701465214546</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.8442897455598958</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3.174364554983423</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.765247725520927</v>
+      </c>
+      <c r="F28">
         <v>3.328619491797184</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>8.559031553387557</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.4465824148456156</v>
       </c>
-      <c r="H28" t="n">
-        <v>25.84558922578822</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>27.61083695130915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>11.73293375378722</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.8130197549836035</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>3.788757694657634</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="F29">
         <v>3.726915841243001</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>10.84143996762424</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H29" t="n">
-        <v>31.23800382342991</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>32.58789914294591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>10.2281312569177</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.094449670170235</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>3.583959981432896</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="F30">
         <v>3.243270274058794</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>9.58611533979407</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.4465824148456156</v>
       </c>
-      <c r="H30" t="n">
-        <v>28.1825089372193</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>29.42856615523408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>12.79647837563486</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.063179679593943</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>5.119942830618425</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>1.765247725520927</v>
+      </c>
+      <c r="F31">
         <v>3.015672360089756</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>8.559031553387557</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H31" t="n">
-        <v>30.66595040303595</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>32.43119812855686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>15.91922641425132</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.8130197549836035</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>6.860723393028688</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>2.492114436029544</v>
+      </c>
+      <c r="F32">
         <v>3.186370795566535</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>6.847225242710046</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.781519225979827</v>
       </c>
-      <c r="H32" t="n">
-        <v>34.40808482652002</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>36.90019926254956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>19.00803153940457</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.8130197549836035</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>4.505549690944212</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>3.738171654044316</v>
+      </c>
+      <c r="F33">
         <v>2.105280704213603</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>5.249539352744369</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H33" t="n">
-        <v>31.90471224971316</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>35.64288390375748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>19.7095184176445</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.437779868068094</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>3.071965698371054</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>4.672714567555394</v>
+      </c>
+      <c r="F34">
         <v>1.28023826607584</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>6.048382297727207</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H34" t="n">
-        <v>30.6037073497424</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>35.2764219172978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>13.22642194616901</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.500319849220679</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1.535982849185527</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>3.842009755545547</v>
+      </c>
+      <c r="F35">
         <v>1.337137744568099</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>6.847225242710046</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H35" t="n">
-        <v>23.50291043370906</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>27.34492018925461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>11.22379005183889</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.5628598303732637</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2.355173702084475</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>3.218981146538159</v>
+      </c>
+      <c r="F36">
         <v>1.081090091352931</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>8.787272394811225</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H36" t="n">
-        <v>24.17765447602789</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>27.39663562256604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>9.571901596628727</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.5941298209495562</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2.150375988859738</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>1.453733421017234</v>
+      </c>
+      <c r="F37">
         <v>0.6827937419071146</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>5.021298511320698</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>18.02049965966583</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>19.47423308068307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>3.982635179684765</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.500319849220679</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="F38">
         <v>0.5120953064303359</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>3.309492200643189</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>8.611739105816074</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>9.857796323830847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2.557032814229424</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.6230286090073859</v>
+      </c>
+      <c r="F39">
         <v>0.2560476532151679</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>3.195371779931354</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>6.597078732399684</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>7.22010734140707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2.579661423204905</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.5628598303732637</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="F40">
         <v>0.4267460886919465</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>4.678937249185199</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>8.453002304680052</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>9.179869015188668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1.221944884676007</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.5315898397969715</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.1023988566123685</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="F41">
         <v>0.4551958279380763</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>4.793057669897035</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>7.104187078920459</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>7.623377586426614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1.199316275700525</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>0.4551958279380763</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>4.222455566337862</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>6.22093756631568</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.9956587949211911</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.1023988566123685</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.3115143045036929</v>
+      </c>
+      <c r="F43">
         <v>0.4267460886919465</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>5.706021035591704</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>7.512254691003841</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>7.823768995507534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1.617945541746936</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.4095954264494739</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="F44">
         <v>0.7112434811532443</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>7.874309029116554</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>10.80071342192396</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>11.21606582792889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>4.672807753436953</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.33118513596079</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>1.869085827022158</v>
+      </c>
+      <c r="F45">
         <v>1.28023826607584</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>16.54746100321595</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H45" t="n">
-        <v>24.07513490400298</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>25.94422073102514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>10.5901890005254</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>3.174364554983423</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>4.984228872059087</v>
+      </c>
+      <c r="F46">
         <v>2.702725228382328</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>18.25926731389345</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H46" t="n">
-        <v>34.98782447508059</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>39.97205334713968</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>15.35351118986428</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>3.071965698371054</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>4.153524060049239</v>
+      </c>
+      <c r="F47">
         <v>2.50357705365942</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>11.52616249189525</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H47" t="n">
-        <v>32.98449036767885</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>37.13801442772809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>17.36745738868215</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.437779868068094</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>3.379162268208161</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>3.322819248039391</v>
+      </c>
+      <c r="F48">
         <v>2.873423663859107</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>10.38495828477691</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H48" t="n">
-        <v>34.55442707730582</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>37.8772463253452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>12.46836354549037</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.5315898397969715</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>3.891156551270001</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="F49">
         <v>3.613116884258481</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>14.03681174755559</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H49" t="n">
-        <v>34.65268417208282</v>
+      <c r="I49">
+        <v>36.9371224051099</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>9.662416032530651</v>
+        <v>18.5726679427685</v>
       </c>
       <c r="C2">
-        <v>0.8442897455598958</v>
+        <v>1.622856337273812</v>
       </c>
       <c r="D2">
-        <v>3.993555407882371</v>
+        <v>7.676235245091265</v>
       </c>
       <c r="E2">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="F2">
-        <v>3.64156662350461</v>
+        <v>6.999658000868143</v>
       </c>
       <c r="G2">
-        <v>9.928476601929569</v>
+        <v>19.08407777975683</v>
       </c>
       <c r="H2">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="I2">
-        <v>29.29176883640686</v>
+        <v>56.30334009872216</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>9.922645035748692</v>
+        <v>19.07286860164868</v>
       </c>
       <c r="C3">
-        <v>1.000639698441358</v>
+        <v>1.923385288620814</v>
       </c>
       <c r="D3">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="E3">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="F3">
-        <v>3.157921056320405</v>
+        <v>6.070015922627844</v>
       </c>
       <c r="G3">
-        <v>8.444911132675724</v>
+        <v>16.23243397358628</v>
       </c>
       <c r="H3">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I3">
-        <v>26.90777014363788</v>
+        <v>51.72092344974706</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>10.02447377613836</v>
+        <v>19.26859929425397</v>
       </c>
       <c r="C4">
-        <v>1.188259641899112</v>
+        <v>2.284020030237217</v>
       </c>
       <c r="D4">
-        <v>3.276763411595791</v>
+        <v>6.298449431869755</v>
       </c>
       <c r="E4">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="F4">
-        <v>3.015672360089756</v>
+        <v>5.796591781968932</v>
       </c>
       <c r="G4">
-        <v>9.357874498370398</v>
+        <v>17.98729170046046</v>
       </c>
       <c r="H4">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I4">
-        <v>28.11690840831836</v>
+        <v>54.04507544353409</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>11.74424805827496</v>
+        <v>22.57427321380996</v>
       </c>
       <c r="C5">
-        <v>1.063179679593943</v>
+        <v>2.043596869159614</v>
       </c>
       <c r="D5">
-        <v>4.60794854755658</v>
+        <v>8.857194513566844</v>
       </c>
       <c r="E5">
-        <v>1.557571522518465</v>
+        <v>2.993894962445672</v>
       </c>
       <c r="F5">
-        <v>3.926064015965907</v>
+        <v>7.54650628218597</v>
       </c>
       <c r="G5">
-        <v>9.814356181217732</v>
+        <v>18.86472056389756</v>
       </c>
       <c r="H5">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="I5">
-        <v>33.15995041997321</v>
+        <v>63.73858733420001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>11.50664766403241</v>
+        <v>22.11756826439762</v>
       </c>
       <c r="C6">
-        <v>0.9068297267124805</v>
+        <v>1.743067917812613</v>
       </c>
       <c r="D6">
-        <v>4.095954264494739</v>
+        <v>7.873061789837196</v>
       </c>
       <c r="E6">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="F6">
-        <v>3.81226505898139</v>
+        <v>7.327766969658838</v>
       </c>
       <c r="G6">
-        <v>9.928476601929569</v>
+        <v>19.08407777975683</v>
       </c>
       <c r="H6">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I6">
-        <v>31.93500544680079</v>
+        <v>61.38405238576679</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>13.10196459680385</v>
+        <v>25.18401578188049</v>
       </c>
       <c r="C7">
-        <v>0.8755597361361881</v>
+        <v>1.682962127543212</v>
       </c>
       <c r="D7">
-        <v>4.403150834331844</v>
+        <v>8.463541424074984</v>
       </c>
       <c r="E7">
-        <v>1.453733421017234</v>
+        <v>2.794301964949294</v>
       </c>
       <c r="F7">
-        <v>3.129471317074275</v>
+        <v>6.015331094496063</v>
       </c>
       <c r="G7">
-        <v>8.787272394811225</v>
+        <v>16.8905056211641</v>
       </c>
       <c r="H7">
-        <v>0.5582280185570194</v>
+        <v>1.073001161417983</v>
       </c>
       <c r="I7">
-        <v>32.30938031873164</v>
+        <v>62.10365917552612</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>14.55019557123468</v>
+        <v>27.96774118782235</v>
       </c>
       <c r="C8">
-        <v>0.6879397926784333</v>
+        <v>1.32232738592681</v>
       </c>
       <c r="D8">
-        <v>6.04153254012974</v>
+        <v>11.61276614000986</v>
       </c>
       <c r="E8">
-        <v>2.388276334528312</v>
+        <v>4.590638942416698</v>
       </c>
       <c r="F8">
-        <v>3.357069231043313</v>
+        <v>6.452809719550321</v>
       </c>
       <c r="G8">
-        <v>6.162502718439041</v>
+        <v>11.84528965640079</v>
       </c>
       <c r="H8">
-        <v>0.6140508204127213</v>
+        <v>1.180301277559781</v>
       </c>
       <c r="I8">
-        <v>33.80156700846624</v>
+        <v>64.97187430968661</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>16.86962799122156</v>
+        <v>32.42605140827615</v>
       </c>
       <c r="C9">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D9">
-        <v>5.017543974006055</v>
+        <v>9.644500692550563</v>
       </c>
       <c r="E9">
-        <v>2.907466842034467</v>
+        <v>5.588603929898587</v>
       </c>
       <c r="F9">
-        <v>1.650084876275527</v>
+        <v>3.171720031643378</v>
       </c>
       <c r="G9">
-        <v>5.363659773456201</v>
+        <v>10.30978914538587</v>
       </c>
       <c r="H9">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I9">
-        <v>32.46945453248471</v>
+        <v>62.41134673609336</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>18.89488849452716</v>
+        <v>36.31891740564801</v>
       </c>
       <c r="C10">
-        <v>0.4065098774918017</v>
+        <v>0.7813752735022055</v>
       </c>
       <c r="D10">
-        <v>3.174364554983423</v>
+        <v>6.101622887123826</v>
       </c>
       <c r="E10">
-        <v>4.25736216155047</v>
+        <v>8.183312897351502</v>
       </c>
       <c r="F10">
-        <v>1.109539830599061</v>
+        <v>2.132708297139513</v>
       </c>
       <c r="G10">
-        <v>6.048382297727207</v>
+        <v>11.62593244054152</v>
       </c>
       <c r="H10">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I10">
-        <v>34.00269282059053</v>
+        <v>65.35846943359017</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>13.13590751026707</v>
+        <v>25.24925934608223</v>
       </c>
       <c r="C11">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="D11">
-        <v>1.638381705797896</v>
+        <v>3.149224715934877</v>
       </c>
       <c r="E11">
-        <v>4.153524060049239</v>
+        <v>7.983719899855125</v>
       </c>
       <c r="F11">
-        <v>1.137989569845191</v>
+        <v>2.187393125271295</v>
       </c>
       <c r="G11">
-        <v>6.162502718439041</v>
+        <v>11.84528965640079</v>
       </c>
       <c r="H11">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I11">
-        <v>26.87154100790681</v>
+        <v>51.65128541040772</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>10.42047443320929</v>
+        <v>20.0297742099412</v>
       </c>
       <c r="C12">
-        <v>0.6566698021021412</v>
+        <v>1.262221595657409</v>
       </c>
       <c r="D12">
-        <v>2.457572558696843</v>
+        <v>4.723837073902315</v>
       </c>
       <c r="E12">
-        <v>3.115143045036929</v>
+        <v>5.987789924891343</v>
       </c>
       <c r="F12">
-        <v>0.7681429596455039</v>
+        <v>1.476490359558124</v>
       </c>
       <c r="G12">
-        <v>8.559031553387557</v>
+        <v>16.45179118944555</v>
       </c>
       <c r="I12">
-        <v>25.97703435207826</v>
+        <v>49.93190435339595</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>9.221158157508762</v>
+        <v>17.72450160814558</v>
       </c>
       <c r="C13">
-        <v>0.6879397926784333</v>
+        <v>1.32232738592681</v>
       </c>
       <c r="D13">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="E13">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="F13">
-        <v>0.7965926988916336</v>
+        <v>1.531175187689907</v>
       </c>
       <c r="G13">
-        <v>5.021298511320698</v>
+        <v>9.651717497808056</v>
       </c>
       <c r="I13">
-        <v>18.60854959443447</v>
+        <v>35.76852945996087</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>5.849495420162003</v>
+        <v>11.24364089743714</v>
       </c>
       <c r="C14">
-        <v>0.5628598303732637</v>
+        <v>1.081904224849208</v>
       </c>
       <c r="D14">
-        <v>1.33118513596079</v>
+        <v>2.558745081697087</v>
       </c>
       <c r="E14">
-        <v>1.557571522518465</v>
+        <v>2.993894962445672</v>
       </c>
       <c r="F14">
-        <v>0.6543440026609847</v>
+        <v>1.257751047030994</v>
       </c>
       <c r="G14">
-        <v>5.82014145630354</v>
+        <v>11.18721800882297</v>
       </c>
       <c r="I14">
-        <v>15.77559736797905</v>
+        <v>30.32315422228307</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>3.711091871978986</v>
+        <v>7.133296352726076</v>
       </c>
       <c r="C15">
-        <v>0.5628598303732637</v>
+        <v>1.081904224849208</v>
       </c>
       <c r="D15">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E15">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F15">
-        <v>0.3129471317074274</v>
+        <v>0.6015331094496061</v>
       </c>
       <c r="G15">
-        <v>4.222455566337862</v>
+        <v>8.116216986793138</v>
       </c>
       <c r="I15">
-        <v>10.05109388374572</v>
+        <v>19.31976728552322</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.82160302252627</v>
+        <v>3.501404612161275</v>
       </c>
       <c r="C16">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="D16">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="E16">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="F16">
-        <v>0.5689947849225954</v>
+        <v>1.093696562635647</v>
       </c>
       <c r="G16">
-        <v>3.994214724914193</v>
+        <v>7.677502555074588</v>
       </c>
       <c r="H16">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I16">
-        <v>7.801490741136718</v>
+        <v>14.99567980781369</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>1.289830711602453</v>
+        <v>2.479255439666989</v>
       </c>
       <c r="C17">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D17">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="E17">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="F17">
-        <v>0.5974445241687252</v>
+        <v>1.14838139076743</v>
       </c>
       <c r="G17">
-        <v>3.880094304202359</v>
+        <v>7.458145339215315</v>
       </c>
       <c r="I17">
-        <v>6.668949574389829</v>
+        <v>12.81875936155171</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.8938300545315242</v>
+        <v>1.718080523979756</v>
       </c>
       <c r="C18">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D18">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="F18">
-        <v>0.5120953064303359</v>
+        <v>0.9843269063720828</v>
       </c>
       <c r="G18">
-        <v>3.423612621355023</v>
+        <v>6.580716475778218</v>
       </c>
       <c r="I18">
-        <v>5.324354495611743</v>
+        <v>10.23423828198425</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.8146299231173384</v>
+        <v>1.565845540842309</v>
       </c>
       <c r="C19">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="D19">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E19">
-        <v>0.2076762030024619</v>
+        <v>0.3991859949927561</v>
       </c>
       <c r="F19">
-        <v>0.4836455671842062</v>
+        <v>0.9296420782403003</v>
       </c>
       <c r="G19">
-        <v>5.249539352744369</v>
+        <v>10.0904319295266</v>
       </c>
       <c r="I19">
-        <v>7.375387521648405</v>
+        <v>14.17664308053376</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>1.402973756479861</v>
+        <v>2.6967339870062</v>
       </c>
       <c r="C20">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="D20">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E20">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="F20">
-        <v>0.7396932203993741</v>
+        <v>1.421805531426342</v>
       </c>
       <c r="G20">
-        <v>9.58611533979407</v>
+        <v>18.42600613217902</v>
       </c>
       <c r="H20">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I20">
-        <v>12.81985400013396</v>
+        <v>24.64175529367066</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>4.60492192651051</v>
+        <v>8.851376876705833</v>
       </c>
       <c r="C21">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="D21">
-        <v>1.023988566123685</v>
+        <v>1.968265447459299</v>
       </c>
       <c r="E21">
-        <v>2.07676203002462</v>
+        <v>3.991859949927563</v>
       </c>
       <c r="F21">
-        <v>0.881941916630023</v>
+        <v>1.695229672085254</v>
       </c>
       <c r="G21">
-        <v>13.92269132684376</v>
+        <v>26.76158033483142</v>
       </c>
       <c r="H21">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I21">
-        <v>22.87882847375122</v>
+        <v>43.97667029984517</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>10.2847027793564</v>
+        <v>19.76879995313416</v>
       </c>
       <c r="C22">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D22">
-        <v>2.764769128533949</v>
+        <v>5.314316708140104</v>
       </c>
       <c r="E22">
-        <v>4.465038364552932</v>
+        <v>8.58249889234426</v>
       </c>
       <c r="F22">
-        <v>2.44667757516716</v>
+        <v>4.702895219333283</v>
       </c>
       <c r="G22">
-        <v>15.0638955339621</v>
+        <v>28.95515249342415</v>
       </c>
       <c r="H22">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I22">
-        <v>35.4985345136057</v>
+        <v>68.23371005309835</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>16.05499806810421</v>
+        <v>30.86020586743384</v>
       </c>
       <c r="C23">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D23">
-        <v>3.993555407882371</v>
+        <v>7.676235245091265</v>
       </c>
       <c r="E23">
-        <v>4.049685958548007</v>
+        <v>7.784126902358746</v>
       </c>
       <c r="F23">
-        <v>2.702725228382328</v>
+        <v>5.195058672519327</v>
       </c>
       <c r="G23">
-        <v>12.78148711972542</v>
+        <v>24.56800817623869</v>
       </c>
       <c r="H23">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I23">
-        <v>40.35516846184464</v>
+        <v>77.56891662426426</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>19.00803153940457</v>
+        <v>36.53639595298721</v>
       </c>
       <c r="C24">
-        <v>0.9380997172887729</v>
+        <v>1.803173708082013</v>
       </c>
       <c r="D24">
-        <v>4.505549690944212</v>
+        <v>8.660367968820912</v>
       </c>
       <c r="E24">
-        <v>4.361200263051701</v>
+        <v>8.382905894847882</v>
       </c>
       <c r="F24">
-        <v>3.584667145012351</v>
+        <v>6.89028834460458</v>
       </c>
       <c r="G24">
-        <v>12.43912585758992</v>
+        <v>23.90993652866086</v>
       </c>
       <c r="H24">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="I24">
-        <v>45.22743382628143</v>
+        <v>86.93416921099605</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>12.309963282662</v>
+        <v>23.66166595050599</v>
       </c>
       <c r="C25">
-        <v>0.6253998115258486</v>
+        <v>1.202115805388009</v>
       </c>
       <c r="D25">
-        <v>4.71034740416895</v>
+        <v>9.05402105831277</v>
       </c>
       <c r="E25">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="F25">
-        <v>3.328619491797184</v>
+        <v>6.398124891418537</v>
       </c>
       <c r="G25">
-        <v>13.23796880257276</v>
+        <v>25.44543703967577</v>
       </c>
       <c r="H25">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="I25">
-        <v>36.94331944059944</v>
+        <v>71.01081161935581</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>10.12630251652803</v>
+        <v>19.46432998685925</v>
       </c>
       <c r="C26">
-        <v>0.8442897455598958</v>
+        <v>1.622856337273812</v>
       </c>
       <c r="D26">
-        <v>3.993555407882371</v>
+        <v>7.676235245091265</v>
       </c>
       <c r="E26">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="F26">
-        <v>4.096762451442687</v>
+        <v>7.874615250976662</v>
       </c>
       <c r="G26">
-        <v>10.84143996762424</v>
+        <v>20.83893550663102</v>
       </c>
       <c r="H26">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="I26">
-        <v>31.22765261553822</v>
+        <v>60.02441011729201</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>10.0923596030648</v>
+        <v>19.3990864226575</v>
       </c>
       <c r="C27">
-        <v>0.9693697078650654</v>
+        <v>1.863279498351414</v>
       </c>
       <c r="D27">
-        <v>2.969566841758686</v>
+        <v>5.707969797631965</v>
       </c>
       <c r="E27">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="F27">
-        <v>4.466609061642374</v>
+        <v>8.585518016689832</v>
       </c>
       <c r="G27">
-        <v>10.95556038833607</v>
+        <v>21.0582927224903</v>
       </c>
       <c r="H27">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I27">
-        <v>30.81897592660335</v>
+        <v>59.23886989484836</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>9.492701465214546</v>
+        <v>18.24645012175969</v>
       </c>
       <c r="C28">
-        <v>0.8442897455598958</v>
+        <v>1.622856337273812</v>
       </c>
       <c r="D28">
-        <v>3.174364554983423</v>
+        <v>6.101622887123826</v>
       </c>
       <c r="E28">
-        <v>1.765247725520927</v>
+        <v>3.393080957438429</v>
       </c>
       <c r="F28">
-        <v>3.328619491797184</v>
+        <v>6.398124891418537</v>
       </c>
       <c r="G28">
-        <v>8.559031553387557</v>
+        <v>16.45179118944555</v>
       </c>
       <c r="H28">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="I28">
-        <v>27.61083695130915</v>
+        <v>53.07232731359423</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>11.73293375378722</v>
+        <v>22.55252535907604</v>
       </c>
       <c r="C29">
-        <v>0.8130197549836035</v>
+        <v>1.562750547004411</v>
       </c>
       <c r="D29">
-        <v>3.788757694657634</v>
+        <v>7.282582155599405</v>
       </c>
       <c r="E29">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="F29">
-        <v>3.726915841243001</v>
+        <v>7.163712485263492</v>
       </c>
       <c r="G29">
-        <v>10.84143996762424</v>
+        <v>20.83893550663102</v>
       </c>
       <c r="H29">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I29">
-        <v>32.58789914294591</v>
+        <v>62.63901571787807</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>10.2281312569177</v>
+        <v>19.66006067946455</v>
       </c>
       <c r="C30">
-        <v>1.094449670170235</v>
+        <v>2.103702659429015</v>
       </c>
       <c r="D30">
-        <v>3.583959981432896</v>
+        <v>6.888929066107544</v>
       </c>
       <c r="E30">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="F30">
-        <v>3.243270274058794</v>
+        <v>6.234070407023191</v>
       </c>
       <c r="G30">
-        <v>9.58611533979407</v>
+        <v>18.42600613217902</v>
       </c>
       <c r="H30">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="I30">
-        <v>29.42856615523408</v>
+        <v>56.56628584329424</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>12.79647837563486</v>
+        <v>24.5968237040646</v>
       </c>
       <c r="C31">
-        <v>1.063179679593943</v>
+        <v>2.043596869159614</v>
       </c>
       <c r="D31">
-        <v>5.119942830618425</v>
+        <v>9.841327237296492</v>
       </c>
       <c r="E31">
-        <v>1.765247725520927</v>
+        <v>3.393080957438429</v>
       </c>
       <c r="F31">
-        <v>3.015672360089756</v>
+        <v>5.796591781968932</v>
       </c>
       <c r="G31">
-        <v>8.559031553387557</v>
+        <v>16.45179118944555</v>
       </c>
       <c r="H31">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I31">
-        <v>32.43119812855686</v>
+        <v>62.33781197165721</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>15.91922641425132</v>
+        <v>30.5992316106268</v>
       </c>
       <c r="C32">
-        <v>0.8130197549836035</v>
+        <v>1.562750547004411</v>
       </c>
       <c r="D32">
-        <v>6.860723393028688</v>
+        <v>13.1873784979773</v>
       </c>
       <c r="E32">
-        <v>2.492114436029544</v>
+        <v>4.790231939913074</v>
       </c>
       <c r="F32">
-        <v>3.186370795566535</v>
+        <v>6.124700750759627</v>
       </c>
       <c r="G32">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="H32">
-        <v>0.781519225979827</v>
+        <v>1.502201625985177</v>
       </c>
       <c r="I32">
-        <v>36.90019926254956</v>
+        <v>70.92792792382284</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>19.00803153940457</v>
+        <v>36.53639595298721</v>
       </c>
       <c r="C33">
-        <v>0.8130197549836035</v>
+        <v>1.562750547004411</v>
       </c>
       <c r="D33">
-        <v>4.505549690944212</v>
+        <v>8.660367968820912</v>
       </c>
       <c r="E33">
-        <v>3.738171654044316</v>
+        <v>7.185347909869614</v>
       </c>
       <c r="F33">
-        <v>2.105280704213603</v>
+        <v>4.046677281751896</v>
       </c>
       <c r="G33">
-        <v>5.249539352744369</v>
+        <v>10.0904319295266</v>
       </c>
       <c r="H33">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I33">
-        <v>35.64288390375748</v>
+        <v>68.51117205452783</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>19.7095184176445</v>
+        <v>37.88476294649031</v>
       </c>
       <c r="C34">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D34">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="E34">
-        <v>4.672714567555394</v>
+        <v>8.981684887337012</v>
       </c>
       <c r="F34">
-        <v>1.28023826607584</v>
+        <v>2.460817265930207</v>
       </c>
       <c r="G34">
-        <v>6.048382297727207</v>
+        <v>11.62593244054152</v>
       </c>
       <c r="H34">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I34">
-        <v>35.2764219172978</v>
+        <v>67.80677506259035</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>13.22642194616901</v>
+        <v>25.42324218395359</v>
       </c>
       <c r="C35">
-        <v>0.500319849220679</v>
+        <v>0.9616926443104069</v>
       </c>
       <c r="D35">
-        <v>1.535982849185527</v>
+        <v>2.952398171188947</v>
       </c>
       <c r="E35">
-        <v>3.842009755545547</v>
+        <v>7.38494090736599</v>
       </c>
       <c r="F35">
-        <v>1.337137744568099</v>
+        <v>2.570186922193772</v>
       </c>
       <c r="G35">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="H35">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I35">
-        <v>27.34492018925461</v>
+        <v>52.56119389671094</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>11.22379005183889</v>
+        <v>21.5738718960496</v>
       </c>
       <c r="C36">
-        <v>0.5628598303732637</v>
+        <v>1.081904224849208</v>
       </c>
       <c r="D36">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="E36">
-        <v>3.218981146538159</v>
+        <v>6.187382922387723</v>
       </c>
       <c r="F36">
-        <v>1.081090091352931</v>
+        <v>2.07802346900773</v>
       </c>
       <c r="G36">
-        <v>8.787272394811225</v>
+        <v>16.8905056211641</v>
       </c>
       <c r="H36">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I36">
-        <v>27.39663562256604</v>
+        <v>52.66059901104014</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>9.571901596628727</v>
+        <v>18.39868510489714</v>
       </c>
       <c r="C37">
-        <v>0.5941298209495562</v>
+        <v>1.142010015118608</v>
       </c>
       <c r="D37">
-        <v>2.150375988859738</v>
+        <v>4.133357439664526</v>
       </c>
       <c r="E37">
-        <v>1.453733421017234</v>
+        <v>2.794301964949294</v>
       </c>
       <c r="F37">
-        <v>0.6827937419071146</v>
+        <v>1.312435875162777</v>
       </c>
       <c r="G37">
-        <v>5.021298511320698</v>
+        <v>9.651717497808056</v>
       </c>
       <c r="I37">
-        <v>19.47423308068307</v>
+        <v>37.4325078976004</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>3.982635179684765</v>
+        <v>7.65524486634018</v>
       </c>
       <c r="C38">
-        <v>0.500319849220679</v>
+        <v>0.9616926443104069</v>
       </c>
       <c r="D38">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E38">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="F38">
-        <v>0.5120953064303359</v>
+        <v>0.9843269063720828</v>
       </c>
       <c r="G38">
-        <v>3.309492200643189</v>
+        <v>6.361359259918943</v>
       </c>
       <c r="I38">
-        <v>9.857796323830847</v>
+        <v>18.94821928113594</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>2.557032814229424</v>
+        <v>4.915015169866138</v>
       </c>
       <c r="C39">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D39">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E39">
-        <v>0.6230286090073859</v>
+        <v>1.197557984978268</v>
       </c>
       <c r="F39">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="G39">
-        <v>3.195371779931354</v>
+        <v>6.142002044059672</v>
       </c>
       <c r="I39">
-        <v>7.22010734140707</v>
+        <v>13.87817039875251</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>2.579661423204905</v>
+        <v>4.958510879333978</v>
       </c>
       <c r="C40">
-        <v>0.5628598303732637</v>
+        <v>1.081904224849208</v>
       </c>
       <c r="D40">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="E40">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="F40">
-        <v>0.4267460886919465</v>
+        <v>0.8202724219767357</v>
       </c>
       <c r="G40">
-        <v>4.678937249185199</v>
+        <v>8.99364585023023</v>
       </c>
       <c r="I40">
-        <v>9.179869015188668</v>
+        <v>17.64513744835666</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>1.221944884676007</v>
+        <v>2.348768311263464</v>
       </c>
       <c r="C41">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="D41">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="E41">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="F41">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="G41">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="I41">
-        <v>7.623377586426614</v>
+        <v>14.65331859426912</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>1.199316275700525</v>
+        <v>2.305272601795622</v>
       </c>
       <c r="C42">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F42">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="G42">
-        <v>4.222455566337862</v>
+        <v>8.116216986793138</v>
       </c>
       <c r="I42">
-        <v>6.22093756631568</v>
+        <v>11.95761053166068</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.9956587949211911</v>
+        <v>1.913811216585045</v>
       </c>
       <c r="C43">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D43">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="E43">
-        <v>0.3115143045036929</v>
+        <v>0.5987789924891342</v>
       </c>
       <c r="F43">
-        <v>0.4267460886919465</v>
+        <v>0.8202724219767357</v>
       </c>
       <c r="G43">
-        <v>5.706021035591704</v>
+        <v>10.9678607929637</v>
       </c>
       <c r="I43">
-        <v>7.823768995507534</v>
+        <v>15.03850208118515</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>1.617945541746936</v>
+        <v>3.109943226950695</v>
       </c>
       <c r="C44">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D44">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="E44">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="F44">
-        <v>0.7112434811532443</v>
+        <v>1.36712070329456</v>
       </c>
       <c r="G44">
-        <v>7.874309029116554</v>
+        <v>15.1356478942899</v>
       </c>
       <c r="I44">
-        <v>11.21606582792889</v>
+        <v>21.55902473512079</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>4.672807753436953</v>
+        <v>8.981864005109355</v>
       </c>
       <c r="C45">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D45">
-        <v>1.33118513596079</v>
+        <v>2.558745081697087</v>
       </c>
       <c r="E45">
-        <v>1.869085827022158</v>
+        <v>3.592673954934807</v>
       </c>
       <c r="F45">
-        <v>1.28023826607584</v>
+        <v>2.460817265930207</v>
       </c>
       <c r="G45">
-        <v>16.54746100321595</v>
+        <v>31.80679629959473</v>
       </c>
       <c r="H45">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I45">
-        <v>25.94422073102514</v>
+        <v>49.86883146502439</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>10.5901890005254</v>
+        <v>20.35599203095002</v>
       </c>
       <c r="C46">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="D46">
-        <v>3.174364554983423</v>
+        <v>6.101622887123826</v>
       </c>
       <c r="E46">
-        <v>4.984228872059087</v>
+        <v>9.580463879826148</v>
       </c>
       <c r="F46">
-        <v>2.702725228382328</v>
+        <v>5.195058672519327</v>
       </c>
       <c r="G46">
-        <v>18.25926731389345</v>
+        <v>35.09715453748384</v>
       </c>
       <c r="H46">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I46">
-        <v>39.97205334713968</v>
+        <v>76.83250972713677</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>15.35351118986428</v>
+        <v>29.51183887393075</v>
       </c>
       <c r="C47">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D47">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="E47">
-        <v>4.153524060049239</v>
+        <v>7.983719899855125</v>
       </c>
       <c r="F47">
-        <v>2.50357705365942</v>
+        <v>4.812264875596849</v>
       </c>
       <c r="G47">
-        <v>11.52616249189525</v>
+        <v>22.15507880178667</v>
       </c>
       <c r="H47">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I47">
-        <v>37.13801442772809</v>
+        <v>71.38504569641148</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>17.36745738868215</v>
+        <v>33.38295701656868</v>
       </c>
       <c r="C48">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D48">
-        <v>3.379162268208161</v>
+        <v>6.495275976615685</v>
       </c>
       <c r="E48">
-        <v>3.322819248039391</v>
+        <v>6.386975919884097</v>
       </c>
       <c r="F48">
-        <v>2.873423663859107</v>
+        <v>5.523167641310019</v>
       </c>
       <c r="G48">
-        <v>10.38495828477691</v>
+        <v>19.96150664319394</v>
       </c>
       <c r="H48">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I48">
-        <v>37.8772463253452</v>
+        <v>72.80596449362763</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>12.46836354549037</v>
+        <v>23.96613591678091</v>
       </c>
       <c r="C49">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="D49">
-        <v>3.891156551270001</v>
+        <v>7.479408700345335</v>
       </c>
       <c r="E49">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="F49">
-        <v>3.613116884258481</v>
+        <v>6.944973172736362</v>
       </c>
       <c r="G49">
-        <v>14.03681174755559</v>
+        <v>26.9809375506907</v>
       </c>
       <c r="H49">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I49">
-        <v>36.9371224051099</v>
+        <v>70.99889995233704</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>7.463782444290148</v>
+        <v>4.350980153570689</v>
       </c>
       <c r="C2">
-        <v>0.6521759112408776</v>
+        <v>0.3801831668628991</v>
       </c>
       <c r="D2">
-        <v>3.084842201298359</v>
+        <v>1.798295608818888</v>
       </c>
       <c r="E2">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="F2">
-        <v>2.812946673246077</v>
+        <v>1.63979526998531</v>
       </c>
       <c r="G2">
-        <v>7.66930228532284</v>
+        <v>4.470787068653314</v>
       </c>
       <c r="H2">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="I2">
-        <v>22.62657592752387</v>
+        <v>13.19006596705267</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>7.6647976623448</v>
+        <v>4.468161117894021</v>
       </c>
       <c r="C3">
-        <v>0.7729492281373364</v>
+        <v>0.4505874570226953</v>
       </c>
       <c r="D3">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="E3">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="F3">
-        <v>2.439352193205581</v>
+        <v>1.422009960690386</v>
       </c>
       <c r="G3">
-        <v>6.523314587515978</v>
+        <v>3.802738426210865</v>
       </c>
       <c r="H3">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I3">
-        <v>20.78504400316938</v>
+        <v>12.11655278324293</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>7.743455791148793</v>
+        <v>4.514014538716195</v>
       </c>
       <c r="C4">
-        <v>0.917877208413087</v>
+        <v>0.5350726052144508</v>
       </c>
       <c r="D4">
-        <v>2.531152575424294</v>
+        <v>1.475524602107805</v>
       </c>
       <c r="E4">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="F4">
-        <v>2.329471463781907</v>
+        <v>1.357955457956585</v>
       </c>
       <c r="G4">
-        <v>7.228537786166353</v>
+        <v>4.213845283098527</v>
       </c>
       <c r="H4">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I4">
-        <v>21.71904901001837</v>
+        <v>12.66102701979366</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>9.071904188727368</v>
+        <v>5.288427868157351</v>
       </c>
       <c r="C5">
-        <v>0.82125855489592</v>
+        <v>0.4787491730866137</v>
       </c>
       <c r="D5">
-        <v>3.559433309190414</v>
+        <v>2.074956471714102</v>
       </c>
       <c r="E5">
-        <v>1.203154050328635</v>
+        <v>0.7013735239125063</v>
       </c>
       <c r="F5">
-        <v>3.032708132093427</v>
+        <v>1.767904275452912</v>
       </c>
       <c r="G5">
-        <v>7.581149385491541</v>
+        <v>4.419398711542358</v>
       </c>
       <c r="H5">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="I5">
-        <v>25.61457248009907</v>
+        <v>14.9319058178562</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>8.888368554851381</v>
+        <v>5.181436552905609</v>
       </c>
       <c r="C6">
-        <v>0.7004852379994613</v>
+        <v>0.4083448829268177</v>
       </c>
       <c r="D6">
-        <v>3.163940719280367</v>
+        <v>1.844405752634756</v>
       </c>
       <c r="E6">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="F6">
-        <v>2.944803548554486</v>
+        <v>1.716660673265871</v>
       </c>
       <c r="G6">
-        <v>7.66930228532284</v>
+        <v>4.470787068653314</v>
       </c>
       <c r="H6">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I6">
-        <v>24.66835750082217</v>
+        <v>14.38031382993664</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>10.12067923944729</v>
+        <v>5.899806812452995</v>
       </c>
       <c r="C7">
-        <v>0.6763305746201694</v>
+        <v>0.3942640248948585</v>
       </c>
       <c r="D7">
-        <v>3.401236273226395</v>
+        <v>1.982736184082363</v>
       </c>
       <c r="E7">
-        <v>1.122943780306726</v>
+        <v>0.6546152889850058</v>
       </c>
       <c r="F7">
-        <v>2.417376047320847</v>
+        <v>1.409199060143626</v>
       </c>
       <c r="G7">
-        <v>6.787773287009869</v>
+        <v>3.956903497543737</v>
       </c>
       <c r="H7">
-        <v>0.4312060742147036</v>
+        <v>0.2513697424879512</v>
       </c>
       <c r="I7">
-        <v>24.95754527614601</v>
+        <v>14.54889461059054</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>11.23937262688188</v>
+        <v>6.551944353035021</v>
       </c>
       <c r="C8">
-        <v>0.5314025943444187</v>
+        <v>0.309778876703103</v>
       </c>
       <c r="D8">
-        <v>4.666812560938544</v>
+        <v>2.720498485136266</v>
       </c>
       <c r="E8">
-        <v>1.844836210503906</v>
+        <v>1.07543940333251</v>
       </c>
       <c r="F8">
-        <v>2.593185214398727</v>
+        <v>1.511686264517707</v>
       </c>
       <c r="G8">
-        <v>4.760256590890038</v>
+        <v>2.774971283991712</v>
       </c>
       <c r="H8">
-        <v>0.4743266816361741</v>
+        <v>0.2765067167367464</v>
       </c>
       <c r="I8">
-        <v>26.11019247959369</v>
+        <v>15.22082538345306</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>13.03103000519509</v>
+        <v>7.596383382873416</v>
       </c>
       <c r="C9">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D9">
-        <v>3.87582738111845</v>
+        <v>2.259397046977577</v>
       </c>
       <c r="E9">
-        <v>2.245887560613451</v>
+        <v>1.309230577970012</v>
       </c>
       <c r="F9">
-        <v>1.274616461314629</v>
+        <v>0.7430322317120936</v>
       </c>
       <c r="G9">
-        <v>4.143186292070959</v>
+        <v>2.415252784215009</v>
       </c>
       <c r="H9">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I9">
-        <v>25.08119541730855</v>
+        <v>14.62097593319072</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>14.59545278918565</v>
+        <v>8.508356974781092</v>
       </c>
       <c r="C10">
-        <v>0.3140106239307929</v>
+        <v>0.1830511544154699</v>
       </c>
       <c r="D10">
-        <v>2.452054057442285</v>
+        <v>1.429414458291937</v>
       </c>
       <c r="E10">
-        <v>3.288621070898266</v>
+        <v>1.917087632027517</v>
       </c>
       <c r="F10">
-        <v>0.8570696895046641</v>
+        <v>0.4996251213236491</v>
       </c>
       <c r="G10">
-        <v>4.672103691058742</v>
+        <v>2.723582926880754</v>
       </c>
       <c r="H10">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I10">
-        <v>26.26555313686333</v>
+        <v>15.31139221621801</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>10.14689861571529</v>
+        <v>5.915091286060387</v>
       </c>
       <c r="C11">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="D11">
-        <v>1.265576287712147</v>
+        <v>0.7377623010539027</v>
       </c>
       <c r="E11">
-        <v>3.208410800876358</v>
+        <v>1.870329397100017</v>
       </c>
       <c r="F11">
-        <v>0.8790458353893992</v>
+        <v>0.5124360218704093</v>
       </c>
       <c r="G11">
-        <v>4.760256590890038</v>
+        <v>2.774971283991712</v>
       </c>
       <c r="H11">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I11">
-        <v>20.75705862287413</v>
+        <v>12.10023882511733</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>8.04934851427544</v>
+        <v>4.692333397469092</v>
       </c>
       <c r="C12">
-        <v>0.507247930965127</v>
+        <v>0.2956980186711438</v>
       </c>
       <c r="D12">
-        <v>1.898364431568221</v>
+        <v>1.106643451580854</v>
       </c>
       <c r="E12">
-        <v>2.406308100657269</v>
+        <v>1.402747047825013</v>
       </c>
       <c r="F12">
-        <v>0.5933559388878443</v>
+        <v>0.3458943147625262</v>
       </c>
       <c r="G12">
-        <v>6.611467487347278</v>
+        <v>3.854126783321822</v>
       </c>
       <c r="I12">
-        <v>20.06609240370118</v>
+        <v>11.69744301363045</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>7.122930552806167</v>
+        <v>4.152281996674603</v>
       </c>
       <c r="C13">
-        <v>0.5314025943444187</v>
+        <v>0.309778876703103</v>
       </c>
       <c r="D13">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="E13">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="F13">
-        <v>0.6153320847725794</v>
+        <v>0.3587052153092865</v>
       </c>
       <c r="G13">
-        <v>3.878727592577069</v>
+        <v>2.261087712882136</v>
       </c>
       <c r="I13">
-        <v>14.37426884839549</v>
+        <v>8.379418739529774</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>4.518472510185019</v>
+        <v>2.63402428500708</v>
       </c>
       <c r="C14">
-        <v>0.4347839408272517</v>
+        <v>0.253455444575266</v>
       </c>
       <c r="D14">
-        <v>1.02828073376612</v>
+        <v>0.5994318696062958</v>
       </c>
       <c r="E14">
-        <v>1.203154050328635</v>
+        <v>0.7013735239125063</v>
       </c>
       <c r="F14">
-        <v>0.5054513553489044</v>
+        <v>0.2946507125754854</v>
       </c>
       <c r="G14">
-        <v>4.495797891396149</v>
+        <v>2.62080621265884</v>
       </c>
       <c r="I14">
-        <v>12.18594048185208</v>
+        <v>7.103742048335474</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>2.866651805301133</v>
+        <v>1.671102447741435</v>
       </c>
       <c r="C15">
-        <v>0.4347839408272517</v>
+        <v>0.253455444575266</v>
       </c>
       <c r="D15">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E15">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F15">
-        <v>0.2417376047320847</v>
+        <v>0.1409199060143626</v>
       </c>
       <c r="G15">
-        <v>3.261657293757989</v>
+        <v>1.901369213105432</v>
       </c>
       <c r="I15">
-        <v>7.764018628761667</v>
+        <v>4.526001557231607</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.407106526382568</v>
+        <v>0.8202667502633264</v>
       </c>
       <c r="C16">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="D16">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="E16">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="F16">
-        <v>0.4395229176946996</v>
+        <v>0.2562180109352046</v>
       </c>
       <c r="G16">
-        <v>3.085351494095395</v>
+        <v>1.798592498883517</v>
       </c>
       <c r="H16">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I16">
-        <v>6.026301231177466</v>
+        <v>3.513006609182522</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.9963362981839307</v>
+        <v>0.5808099970808647</v>
       </c>
       <c r="C17">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D17">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="E17">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="F17">
-        <v>0.4614990635794344</v>
+        <v>0.2690289114819648</v>
       </c>
       <c r="G17">
-        <v>2.997198594264098</v>
+        <v>1.74720414177256</v>
       </c>
       <c r="I17">
-        <v>5.151464042492743</v>
+        <v>3.003023999964762</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.6904435750572849</v>
+        <v>0.4024911383279677</v>
       </c>
       <c r="C18">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D18">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="F18">
-        <v>0.3955706259252295</v>
+        <v>0.2305962098416842</v>
       </c>
       <c r="G18">
-        <v>2.64458699493891</v>
+        <v>1.541650713328729</v>
       </c>
       <c r="I18">
-        <v>4.112824730143203</v>
+        <v>2.397553641137743</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.6292650304319561</v>
+        <v>0.3668273665773886</v>
       </c>
       <c r="C19">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="D19">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E19">
-        <v>0.1604205400438179</v>
+        <v>0.09351646985500082</v>
       </c>
       <c r="F19">
-        <v>0.3735944800404946</v>
+        <v>0.217785309294924</v>
       </c>
       <c r="G19">
-        <v>4.055033392239663</v>
+        <v>2.36386442710405</v>
       </c>
       <c r="I19">
-        <v>5.697155630494876</v>
+        <v>3.321132584598563</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>1.083734219077258</v>
+        <v>0.6317582424388354</v>
       </c>
       <c r="C20">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="D20">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E20">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="F20">
-        <v>0.5713797930031094</v>
+        <v>0.3330834142157661</v>
       </c>
       <c r="G20">
-        <v>7.404843585828947</v>
+        <v>4.316621997320442</v>
       </c>
       <c r="H20">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I20">
-        <v>9.902761473157364</v>
+        <v>5.772772579701039</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>3.557095380358418</v>
+        <v>2.073593586069404</v>
       </c>
       <c r="C21">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="D21">
-        <v>0.7909851798200916</v>
+        <v>0.4611014381586891</v>
       </c>
       <c r="E21">
-        <v>1.604205400438179</v>
+        <v>0.9351646985500084</v>
       </c>
       <c r="F21">
-        <v>0.6812605224267844</v>
+        <v>0.3971379169495673</v>
       </c>
       <c r="G21">
-        <v>10.75465377941823</v>
+        <v>6.269379567536829</v>
       </c>
       <c r="H21">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I21">
-        <v>17.67286750367609</v>
+        <v>10.30232276183288</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>7.944471009203445</v>
+        <v>4.631195503039525</v>
       </c>
       <c r="C22">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D22">
-        <v>2.135659985514248</v>
+        <v>1.244973883028461</v>
       </c>
       <c r="E22">
-        <v>3.449041610942085</v>
+        <v>2.010604101882518</v>
       </c>
       <c r="F22">
-        <v>1.889948546087208</v>
+        <v>1.10173744702138</v>
       </c>
       <c r="G22">
-        <v>11.63618277773121</v>
+        <v>6.783263138646408</v>
       </c>
       <c r="H22">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I22">
-        <v>27.42102366619841</v>
+        <v>15.98496883486915</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>12.40176497476314</v>
+        <v>7.229556016296027</v>
       </c>
       <c r="C23">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D23">
-        <v>3.084842201298359</v>
+        <v>1.798295608818888</v>
       </c>
       <c r="E23">
-        <v>3.12820053085445</v>
+        <v>1.823571162172516</v>
       </c>
       <c r="F23">
-        <v>2.087733859049822</v>
+        <v>1.217035551942222</v>
       </c>
       <c r="G23">
-        <v>9.873124781105266</v>
+        <v>5.755495996427255</v>
       </c>
       <c r="H23">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I23">
-        <v>31.17255527890995</v>
+        <v>18.17190819359711</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>14.68285071007897</v>
+        <v>8.559305220139059</v>
       </c>
       <c r="C24">
-        <v>0.724639901378753</v>
+        <v>0.4224257409587768</v>
       </c>
       <c r="D24">
-        <v>3.480334791208404</v>
+        <v>2.028846327898233</v>
       </c>
       <c r="E24">
-        <v>3.368831340920177</v>
+        <v>1.963845866955017</v>
       </c>
       <c r="F24">
-        <v>2.768994381476606</v>
+        <v>1.614173468891789</v>
       </c>
       <c r="G24">
-        <v>9.608666081611375</v>
+        <v>5.601330925094382</v>
       </c>
       <c r="H24">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="I24">
-        <v>34.93616145862458</v>
+        <v>20.36588636967883</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>9.508893793194002</v>
+        <v>5.543169094947205</v>
       </c>
       <c r="C25">
-        <v>0.4830932675858352</v>
+        <v>0.2816171606391846</v>
       </c>
       <c r="D25">
-        <v>3.638531827172423</v>
+        <v>2.12106661552997</v>
       </c>
       <c r="E25">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="F25">
-        <v>2.571209068513992</v>
+        <v>1.498875363970947</v>
       </c>
       <c r="G25">
-        <v>10.22573638043045</v>
+        <v>5.961049424871087</v>
       </c>
       <c r="H25">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="I25">
-        <v>28.53705513675047</v>
+        <v>16.63555462235377</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>7.822113919952791</v>
+        <v>4.559867959538369</v>
       </c>
       <c r="C26">
-        <v>0.6521759112408776</v>
+        <v>0.3801831668628991</v>
       </c>
       <c r="D26">
-        <v>3.084842201298359</v>
+        <v>1.798295608818888</v>
       </c>
       <c r="E26">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="F26">
-        <v>3.164565007401836</v>
+        <v>1.844769678733474</v>
       </c>
       <c r="G26">
-        <v>8.374525483973216</v>
+        <v>4.881893925540976</v>
       </c>
       <c r="H26">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="I26">
-        <v>24.12195920601455</v>
+        <v>14.06179327358367</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>7.795894543684789</v>
+        <v>4.544583485930977</v>
       </c>
       <c r="C27">
-        <v>0.7487945647580446</v>
+        <v>0.4365065989907361</v>
       </c>
       <c r="D27">
-        <v>2.293857021478267</v>
+        <v>1.337194170660199</v>
       </c>
       <c r="E27">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="F27">
-        <v>3.450254903903391</v>
+        <v>2.011311385841357</v>
       </c>
       <c r="G27">
-        <v>8.462678383804512</v>
+        <v>4.933282282651931</v>
       </c>
       <c r="H27">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I27">
-        <v>23.80627481755588</v>
+        <v>13.87776640527289</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>7.332685562950156</v>
+        <v>4.274557785533734</v>
       </c>
       <c r="C28">
-        <v>0.6521759112408776</v>
+        <v>0.3801831668628991</v>
       </c>
       <c r="D28">
-        <v>2.452054057442285</v>
+        <v>1.429414458291937</v>
       </c>
       <c r="E28">
-        <v>1.363574590372453</v>
+        <v>0.7948899937675069</v>
       </c>
       <c r="F28">
-        <v>2.571209068513992</v>
+        <v>1.498875363970947</v>
       </c>
       <c r="G28">
-        <v>6.611467487347278</v>
+        <v>3.854126783321822</v>
       </c>
       <c r="H28">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="I28">
-        <v>21.3281315372388</v>
+        <v>12.43314334573921</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>9.063164396638033</v>
+        <v>5.283333043621555</v>
       </c>
       <c r="C29">
-        <v>0.6280212478615858</v>
+        <v>0.3661023088309399</v>
       </c>
       <c r="D29">
-        <v>2.926645165334339</v>
+        <v>1.70607532118715</v>
       </c>
       <c r="E29">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="F29">
-        <v>2.878875110900282</v>
+        <v>1.678227971625591</v>
       </c>
       <c r="G29">
-        <v>8.374525483973216</v>
+        <v>4.881893925540976</v>
       </c>
       <c r="H29">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I29">
-        <v>25.17268855952109</v>
+        <v>14.67431147035649</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>7.900772048756783</v>
+        <v>4.605721380360541</v>
       </c>
       <c r="C30">
-        <v>0.8454132182752118</v>
+        <v>0.4928300311185729</v>
       </c>
       <c r="D30">
-        <v>2.768448129370321</v>
+        <v>1.613855033555412</v>
       </c>
       <c r="E30">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="F30">
-        <v>2.505280630859787</v>
+        <v>1.460442662330667</v>
       </c>
       <c r="G30">
-        <v>7.404843585828947</v>
+        <v>4.316621997320442</v>
       </c>
       <c r="H30">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="I30">
-        <v>22.73224571272572</v>
+        <v>13.251665717806</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>9.884704853035313</v>
+        <v>5.762246549986481</v>
       </c>
       <c r="C31">
-        <v>0.82125855489592</v>
+        <v>0.4787491730866137</v>
       </c>
       <c r="D31">
-        <v>3.954925899100459</v>
+        <v>2.305507190793447</v>
       </c>
       <c r="E31">
-        <v>1.363574590372453</v>
+        <v>0.7948899937675069</v>
       </c>
       <c r="F31">
-        <v>2.329471463781907</v>
+        <v>1.357955457956585</v>
       </c>
       <c r="G31">
-        <v>6.611467487347278</v>
+        <v>3.854126783321822</v>
       </c>
       <c r="H31">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I31">
-        <v>25.05164406337627</v>
+        <v>14.60374909741005</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>12.29688746969114</v>
+        <v>7.168418121866465</v>
       </c>
       <c r="C32">
-        <v>0.6280212478615858</v>
+        <v>0.3661023088309399</v>
       </c>
       <c r="D32">
-        <v>5.299600704794615</v>
+        <v>3.089379635663218</v>
       </c>
       <c r="E32">
-        <v>1.925046480525815</v>
+        <v>1.12219763826001</v>
       </c>
       <c r="F32">
-        <v>2.461328339090318</v>
+        <v>1.434820861237146</v>
       </c>
       <c r="G32">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="H32">
-        <v>0.6036885039005851</v>
+        <v>0.3519176394831318</v>
       </c>
       <c r="I32">
-        <v>28.50374673574188</v>
+        <v>16.61613763199837</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>14.68285071007897</v>
+        <v>8.559305220139059</v>
       </c>
       <c r="C33">
-        <v>0.6280212478615858</v>
+        <v>0.3661023088309399</v>
       </c>
       <c r="D33">
-        <v>3.480334791208404</v>
+        <v>2.028846327898233</v>
       </c>
       <c r="E33">
-        <v>2.887569720788723</v>
+        <v>1.683296457390015</v>
       </c>
       <c r="F33">
-        <v>1.626234795470388</v>
+        <v>0.9480066404602573</v>
       </c>
       <c r="G33">
-        <v>4.055033392239663</v>
+        <v>2.36386442710405</v>
       </c>
       <c r="H33">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I33">
-        <v>27.53252708733362</v>
+        <v>16.04996927881773</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>15.2247178196176</v>
+        <v>8.875184341358482</v>
       </c>
       <c r="C34">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D34">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="E34">
-        <v>3.609462150985903</v>
+        <v>2.104120571737519</v>
       </c>
       <c r="F34">
-        <v>0.9889265648130738</v>
+        <v>0.5764905246042106</v>
       </c>
       <c r="G34">
-        <v>4.672103691058742</v>
+        <v>2.723582926880754</v>
       </c>
       <c r="H34">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I34">
-        <v>27.24945166066715</v>
+        <v>15.88495166575326</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>10.21681695242996</v>
+        <v>5.955849882346763</v>
       </c>
       <c r="C35">
-        <v>0.3864746140686682</v>
+        <v>0.2252937285113476</v>
       </c>
       <c r="D35">
-        <v>1.186477769730138</v>
+        <v>0.6916521572380339</v>
       </c>
       <c r="E35">
-        <v>2.967779990810631</v>
+        <v>1.730054692317516</v>
       </c>
       <c r="F35">
-        <v>1.032878856582544</v>
+        <v>0.6021123256977309</v>
       </c>
       <c r="G35">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="H35">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I35">
-        <v>21.12272278092123</v>
+        <v>12.31340118701764</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>8.669873752618061</v>
+        <v>5.054065939510683</v>
       </c>
       <c r="C36">
-        <v>0.4347839408272517</v>
+        <v>0.253455444575266</v>
       </c>
       <c r="D36">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="E36">
-        <v>2.486518370679177</v>
+        <v>1.449505282752513</v>
       </c>
       <c r="F36">
-        <v>0.8350935436199292</v>
+        <v>0.4868142207768889</v>
       </c>
       <c r="G36">
-        <v>6.787773287009869</v>
+        <v>3.956903497543737</v>
       </c>
       <c r="H36">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I36">
-        <v>21.16267063060491</v>
+        <v>12.33668861567046</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>7.393864107575484</v>
+        <v>4.310221557284311</v>
       </c>
       <c r="C37">
-        <v>0.4589386042065435</v>
+        <v>0.2675363026072254</v>
       </c>
       <c r="D37">
-        <v>1.661068877622193</v>
+        <v>0.9683130201332473</v>
       </c>
       <c r="E37">
-        <v>1.122943780306726</v>
+        <v>0.6546152889850058</v>
       </c>
       <c r="F37">
-        <v>0.5274275012336394</v>
+        <v>0.3074616131222456</v>
       </c>
       <c r="G37">
-        <v>3.878727592577069</v>
+        <v>2.261087712882136</v>
       </c>
       <c r="I37">
-        <v>15.04297046352166</v>
+        <v>8.769235495014172</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>3.076406815445121</v>
+        <v>1.793378236600565</v>
       </c>
       <c r="C38">
-        <v>0.3864746140686682</v>
+        <v>0.2252937285113476</v>
       </c>
       <c r="D38">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E38">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="F38">
-        <v>0.3955706259252295</v>
+        <v>0.2305962098416842</v>
       </c>
       <c r="G38">
-        <v>2.556434095107613</v>
+        <v>1.490262356217772</v>
       </c>
       <c r="I38">
-        <v>7.614704944755566</v>
+        <v>4.438959781748981</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.975193012189196</v>
+        <v>1.151430345090135</v>
       </c>
       <c r="C39">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D39">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E39">
-        <v>0.4812616201314538</v>
+        <v>0.2805494095650025</v>
       </c>
       <c r="F39">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="G39">
-        <v>2.468281195276317</v>
+        <v>1.438873999106814</v>
       </c>
       <c r="I39">
-        <v>5.577208664919235</v>
+        <v>3.251210012418034</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.992672596367861</v>
+        <v>1.161619994161729</v>
       </c>
       <c r="C40">
-        <v>0.4347839408272517</v>
+        <v>0.253455444575266</v>
       </c>
       <c r="D40">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="E40">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="F40">
-        <v>0.3296421882710247</v>
+        <v>0.1921635082014035</v>
       </c>
       <c r="G40">
-        <v>3.614268893083176</v>
+        <v>2.106922641549263</v>
       </c>
       <c r="I40">
-        <v>7.091036544666695</v>
+        <v>4.133689520611902</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.9438975456479342</v>
+        <v>0.5502410498660824</v>
       </c>
       <c r="C41">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="D41">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="E41">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="F41">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="G41">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="I41">
-        <v>5.888716818257681</v>
+        <v>3.432802362271145</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.9264179614692691</v>
+        <v>0.5400514007944883</v>
       </c>
       <c r="C42">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F42">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="G42">
-        <v>3.261657293757989</v>
+        <v>1.901369213105432</v>
       </c>
       <c r="I42">
-        <v>4.805394886555227</v>
+        <v>2.801284460999636</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.7691017038612802</v>
+        <v>0.4483445591501413</v>
       </c>
       <c r="C43">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D43">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="E43">
-        <v>0.2406308100657269</v>
+        <v>0.1402747047825013</v>
       </c>
       <c r="F43">
-        <v>0.3296421882710247</v>
+        <v>0.1921635082014035</v>
       </c>
       <c r="G43">
-        <v>4.40764499156485</v>
+        <v>2.569417855547881</v>
       </c>
       <c r="I43">
-        <v>6.043510182158517</v>
+        <v>3.523038493785429</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>1.24979026877458</v>
+        <v>0.7285599086189796</v>
       </c>
       <c r="C44">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D44">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="E44">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="F44">
-        <v>0.5494036471183743</v>
+        <v>0.3202725136690058</v>
       </c>
       <c r="G44">
-        <v>6.082550088359494</v>
+        <v>3.545796640656077</v>
       </c>
       <c r="I44">
-        <v>8.663907136543871</v>
+        <v>5.050587726109295</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>3.609534132894415</v>
+        <v>2.104162533284186</v>
       </c>
       <c r="C45">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D45">
-        <v>1.02828073376612</v>
+        <v>0.5994318696062958</v>
       </c>
       <c r="E45">
-        <v>1.443784860394361</v>
+        <v>0.8416482286950077</v>
       </c>
       <c r="F45">
-        <v>0.9889265648130738</v>
+        <v>0.5764905246042106</v>
       </c>
       <c r="G45">
-        <v>12.78217047553806</v>
+        <v>7.451311781088859</v>
       </c>
       <c r="H45">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I45">
-        <v>20.04074535510325</v>
+        <v>11.68266705971911</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>8.180445395615429</v>
+        <v>4.76875576550605</v>
       </c>
       <c r="C46">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="D46">
-        <v>2.452054057442285</v>
+        <v>1.429414458291937</v>
       </c>
       <c r="E46">
-        <v>3.85009296105163</v>
+        <v>2.24439527652002</v>
       </c>
       <c r="F46">
-        <v>2.087733859049822</v>
+        <v>1.217035551942222</v>
       </c>
       <c r="G46">
-        <v>14.10446397300752</v>
+        <v>8.22213713775322</v>
       </c>
       <c r="H46">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I46">
-        <v>30.87661605856897</v>
+        <v>17.99939168685571</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>11.85989786522451</v>
+        <v>6.91367689507661</v>
       </c>
       <c r="C47">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D47">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="E47">
-        <v>3.208410800876358</v>
+        <v>1.870329397100017</v>
       </c>
       <c r="F47">
-        <v>1.933900837856678</v>
+        <v>1.127359248114901</v>
       </c>
       <c r="G47">
-        <v>8.903442882960997</v>
+        <v>5.190224068206722</v>
       </c>
       <c r="H47">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I47">
-        <v>28.6874482705205</v>
+        <v>16.72322565847397</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>13.41558085712573</v>
+        <v>7.820555662448488</v>
       </c>
       <c r="C48">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D48">
-        <v>2.610251093406303</v>
+        <v>1.521634745923674</v>
       </c>
       <c r="E48">
-        <v>2.566728640701087</v>
+        <v>1.496263517680013</v>
       </c>
       <c r="F48">
-        <v>2.219590734358232</v>
+        <v>1.293900955222784</v>
       </c>
       <c r="G48">
-        <v>8.021913884648027</v>
+        <v>4.676340497097144</v>
       </c>
       <c r="H48">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I48">
-        <v>29.2584717123924</v>
+        <v>17.05610133931712</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>9.631250882444663</v>
+        <v>5.614496638448361</v>
       </c>
       <c r="C49">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="D49">
-        <v>3.00574368331635</v>
+        <v>1.752185465003019</v>
       </c>
       <c r="E49">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="F49">
-        <v>2.790970527361342</v>
+        <v>1.62698436943855</v>
       </c>
       <c r="G49">
-        <v>10.84280667924953</v>
+        <v>6.320767924647789</v>
       </c>
       <c r="H49">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I49">
-        <v>28.53226820514478</v>
+        <v>16.63276410098362</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>4.350980153570689</v>
+        <v>7.463782444290148</v>
       </c>
       <c r="C2">
-        <v>0.3801831668628991</v>
+        <v>0.6521759112408776</v>
       </c>
       <c r="D2">
-        <v>1.798295608818888</v>
+        <v>3.084842201298359</v>
       </c>
       <c r="E2">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="F2">
-        <v>1.63979526998531</v>
+        <v>2.812946673246077</v>
       </c>
       <c r="G2">
-        <v>4.470787068653314</v>
+        <v>7.66930228532284</v>
       </c>
       <c r="H2">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="I2">
-        <v>13.19006596705267</v>
+        <v>22.62657592752387</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>4.468161117894021</v>
+        <v>7.6647976623448</v>
       </c>
       <c r="C3">
-        <v>0.4505874570226953</v>
+        <v>0.7729492281373364</v>
       </c>
       <c r="D3">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="E3">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="F3">
-        <v>1.422009960690386</v>
+        <v>2.439352193205581</v>
       </c>
       <c r="G3">
-        <v>3.802738426210865</v>
+        <v>6.523314587515978</v>
       </c>
       <c r="H3">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I3">
-        <v>12.11655278324293</v>
+        <v>20.78504400316938</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.514014538716195</v>
+        <v>7.743455791148793</v>
       </c>
       <c r="C4">
-        <v>0.5350726052144508</v>
+        <v>0.917877208413087</v>
       </c>
       <c r="D4">
-        <v>1.475524602107805</v>
+        <v>2.531152575424294</v>
       </c>
       <c r="E4">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="F4">
-        <v>1.357955457956585</v>
+        <v>2.329471463781907</v>
       </c>
       <c r="G4">
-        <v>4.213845283098527</v>
+        <v>7.228537786166353</v>
       </c>
       <c r="H4">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I4">
-        <v>12.66102701979366</v>
+        <v>21.71904901001837</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>5.288427868157351</v>
+        <v>9.071904188727368</v>
       </c>
       <c r="C5">
-        <v>0.4787491730866137</v>
+        <v>0.82125855489592</v>
       </c>
       <c r="D5">
-        <v>2.074956471714102</v>
+        <v>3.559433309190414</v>
       </c>
       <c r="E5">
-        <v>0.7013735239125063</v>
+        <v>1.203154050328635</v>
       </c>
       <c r="F5">
-        <v>1.767904275452912</v>
+        <v>3.032708132093427</v>
       </c>
       <c r="G5">
-        <v>4.419398711542358</v>
+        <v>7.581149385491541</v>
       </c>
       <c r="H5">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="I5">
-        <v>14.9319058178562</v>
+        <v>25.61457248009907</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>5.181436552905609</v>
+        <v>8.888368554851381</v>
       </c>
       <c r="C6">
-        <v>0.4083448829268177</v>
+        <v>0.7004852379994613</v>
       </c>
       <c r="D6">
-        <v>1.844405752634756</v>
+        <v>3.163940719280367</v>
       </c>
       <c r="E6">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="F6">
-        <v>1.716660673265871</v>
+        <v>2.944803548554486</v>
       </c>
       <c r="G6">
-        <v>4.470787068653314</v>
+        <v>7.66930228532284</v>
       </c>
       <c r="H6">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I6">
-        <v>14.38031382993664</v>
+        <v>24.66835750082217</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>5.899806812452995</v>
+        <v>10.12067923944729</v>
       </c>
       <c r="C7">
-        <v>0.3942640248948585</v>
+        <v>0.6763305746201694</v>
       </c>
       <c r="D7">
-        <v>1.982736184082363</v>
+        <v>3.401236273226395</v>
       </c>
       <c r="E7">
-        <v>0.6546152889850058</v>
+        <v>1.122943780306726</v>
       </c>
       <c r="F7">
-        <v>1.409199060143626</v>
+        <v>2.417376047320847</v>
       </c>
       <c r="G7">
-        <v>3.956903497543737</v>
+        <v>6.787773287009869</v>
       </c>
       <c r="H7">
-        <v>0.2513697424879512</v>
+        <v>0.4312060742147036</v>
       </c>
       <c r="I7">
-        <v>14.54889461059054</v>
+        <v>24.95754527614601</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>6.551944353035021</v>
+        <v>11.23937262688188</v>
       </c>
       <c r="C8">
-        <v>0.309778876703103</v>
+        <v>0.5314025943444187</v>
       </c>
       <c r="D8">
-        <v>2.720498485136266</v>
+        <v>4.666812560938544</v>
       </c>
       <c r="E8">
-        <v>1.07543940333251</v>
+        <v>1.844836210503906</v>
       </c>
       <c r="F8">
-        <v>1.511686264517707</v>
+        <v>2.593185214398727</v>
       </c>
       <c r="G8">
-        <v>2.774971283991712</v>
+        <v>4.760256590890038</v>
       </c>
       <c r="H8">
-        <v>0.2765067167367464</v>
+        <v>0.4743266816361741</v>
       </c>
       <c r="I8">
-        <v>15.22082538345306</v>
+        <v>26.11019247959369</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>7.596383382873416</v>
+        <v>13.03103000519509</v>
       </c>
       <c r="C9">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D9">
-        <v>2.259397046977577</v>
+        <v>3.87582738111845</v>
       </c>
       <c r="E9">
-        <v>1.309230577970012</v>
+        <v>2.245887560613451</v>
       </c>
       <c r="F9">
-        <v>0.7430322317120936</v>
+        <v>1.274616461314629</v>
       </c>
       <c r="G9">
-        <v>2.415252784215009</v>
+        <v>4.143186292070959</v>
       </c>
       <c r="H9">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I9">
-        <v>14.62097593319072</v>
+        <v>25.08119541730855</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>8.508356974781092</v>
+        <v>14.59545278918565</v>
       </c>
       <c r="C10">
-        <v>0.1830511544154699</v>
+        <v>0.3140106239307929</v>
       </c>
       <c r="D10">
-        <v>1.429414458291937</v>
+        <v>2.452054057442285</v>
       </c>
       <c r="E10">
-        <v>1.917087632027517</v>
+        <v>3.288621070898266</v>
       </c>
       <c r="F10">
-        <v>0.4996251213236491</v>
+        <v>0.8570696895046641</v>
       </c>
       <c r="G10">
-        <v>2.723582926880754</v>
+        <v>4.672103691058742</v>
       </c>
       <c r="H10">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I10">
-        <v>15.31139221621801</v>
+        <v>26.26555313686333</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>5.915091286060387</v>
+        <v>10.14689861571529</v>
       </c>
       <c r="C11">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="D11">
-        <v>0.7377623010539027</v>
+        <v>1.265576287712147</v>
       </c>
       <c r="E11">
-        <v>1.870329397100017</v>
+        <v>3.208410800876358</v>
       </c>
       <c r="F11">
-        <v>0.5124360218704093</v>
+        <v>0.8790458353893992</v>
       </c>
       <c r="G11">
-        <v>2.774971283991712</v>
+        <v>4.760256590890038</v>
       </c>
       <c r="H11">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I11">
-        <v>12.10023882511733</v>
+        <v>20.75705862287413</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>4.692333397469092</v>
+        <v>8.04934851427544</v>
       </c>
       <c r="C12">
-        <v>0.2956980186711438</v>
+        <v>0.507247930965127</v>
       </c>
       <c r="D12">
-        <v>1.106643451580854</v>
+        <v>1.898364431568221</v>
       </c>
       <c r="E12">
-        <v>1.402747047825013</v>
+        <v>2.406308100657269</v>
       </c>
       <c r="F12">
-        <v>0.3458943147625262</v>
+        <v>0.5933559388878443</v>
       </c>
       <c r="G12">
-        <v>3.854126783321822</v>
+        <v>6.611467487347278</v>
       </c>
       <c r="I12">
-        <v>11.69744301363045</v>
+        <v>20.06609240370118</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>4.152281996674603</v>
+        <v>7.122930552806167</v>
       </c>
       <c r="C13">
-        <v>0.309778876703103</v>
+        <v>0.5314025943444187</v>
       </c>
       <c r="D13">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="E13">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="F13">
-        <v>0.3587052153092865</v>
+        <v>0.6153320847725794</v>
       </c>
       <c r="G13">
-        <v>2.261087712882136</v>
+        <v>3.878727592577069</v>
       </c>
       <c r="I13">
-        <v>8.379418739529774</v>
+        <v>14.37426884839549</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>2.63402428500708</v>
+        <v>4.518472510185019</v>
       </c>
       <c r="C14">
-        <v>0.253455444575266</v>
+        <v>0.4347839408272517</v>
       </c>
       <c r="D14">
-        <v>0.5994318696062958</v>
+        <v>1.02828073376612</v>
       </c>
       <c r="E14">
-        <v>0.7013735239125063</v>
+        <v>1.203154050328635</v>
       </c>
       <c r="F14">
-        <v>0.2946507125754854</v>
+        <v>0.5054513553489044</v>
       </c>
       <c r="G14">
-        <v>2.62080621265884</v>
+        <v>4.495797891396149</v>
       </c>
       <c r="I14">
-        <v>7.103742048335474</v>
+        <v>12.18594048185208</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.671102447741435</v>
+        <v>2.866651805301133</v>
       </c>
       <c r="C15">
-        <v>0.253455444575266</v>
+        <v>0.4347839408272517</v>
       </c>
       <c r="D15">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E15">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F15">
-        <v>0.1409199060143626</v>
+        <v>0.2417376047320847</v>
       </c>
       <c r="G15">
-        <v>1.901369213105432</v>
+        <v>3.261657293757989</v>
       </c>
       <c r="I15">
-        <v>4.526001557231607</v>
+        <v>7.764018628761667</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.8202667502633264</v>
+        <v>1.407106526382568</v>
       </c>
       <c r="C16">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="D16">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="E16">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="F16">
-        <v>0.2562180109352046</v>
+        <v>0.4395229176946996</v>
       </c>
       <c r="G16">
-        <v>1.798592498883517</v>
+        <v>3.085351494095395</v>
       </c>
       <c r="H16">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I16">
-        <v>3.513006609182522</v>
+        <v>6.026301231177466</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.5808099970808647</v>
+        <v>0.9963362981839307</v>
       </c>
       <c r="C17">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D17">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="E17">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="F17">
-        <v>0.2690289114819648</v>
+        <v>0.4614990635794344</v>
       </c>
       <c r="G17">
-        <v>1.74720414177256</v>
+        <v>2.997198594264098</v>
       </c>
       <c r="I17">
-        <v>3.003023999964762</v>
+        <v>5.151464042492743</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.4024911383279677</v>
+        <v>0.6904435750572849</v>
       </c>
       <c r="C18">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D18">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="F18">
-        <v>0.2305962098416842</v>
+        <v>0.3955706259252295</v>
       </c>
       <c r="G18">
-        <v>1.541650713328729</v>
+        <v>2.64458699493891</v>
       </c>
       <c r="I18">
-        <v>2.397553641137743</v>
+        <v>4.112824730143203</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.3668273665773886</v>
+        <v>0.6292650304319561</v>
       </c>
       <c r="C19">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="D19">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E19">
-        <v>0.09351646985500082</v>
+        <v>0.1604205400438179</v>
       </c>
       <c r="F19">
-        <v>0.217785309294924</v>
+        <v>0.3735944800404946</v>
       </c>
       <c r="G19">
-        <v>2.36386442710405</v>
+        <v>4.055033392239663</v>
       </c>
       <c r="I19">
-        <v>3.321132584598563</v>
+        <v>5.697155630494876</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.6317582424388354</v>
+        <v>1.083734219077258</v>
       </c>
       <c r="C20">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="D20">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E20">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="F20">
-        <v>0.3330834142157661</v>
+        <v>0.5713797930031094</v>
       </c>
       <c r="G20">
-        <v>4.316621997320442</v>
+        <v>7.404843585828947</v>
       </c>
       <c r="H20">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I20">
-        <v>5.772772579701039</v>
+        <v>9.902761473157364</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>2.073593586069404</v>
+        <v>3.557095380358418</v>
       </c>
       <c r="C21">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="D21">
-        <v>0.4611014381586891</v>
+        <v>0.7909851798200916</v>
       </c>
       <c r="E21">
-        <v>0.9351646985500084</v>
+        <v>1.604205400438179</v>
       </c>
       <c r="F21">
-        <v>0.3971379169495673</v>
+        <v>0.6812605224267844</v>
       </c>
       <c r="G21">
-        <v>6.269379567536829</v>
+        <v>10.75465377941823</v>
       </c>
       <c r="H21">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I21">
-        <v>10.30232276183288</v>
+        <v>17.67286750367609</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>4.631195503039525</v>
+        <v>7.944471009203445</v>
       </c>
       <c r="C22">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D22">
-        <v>1.244973883028461</v>
+        <v>2.135659985514248</v>
       </c>
       <c r="E22">
-        <v>2.010604101882518</v>
+        <v>3.449041610942085</v>
       </c>
       <c r="F22">
-        <v>1.10173744702138</v>
+        <v>1.889948546087208</v>
       </c>
       <c r="G22">
-        <v>6.783263138646408</v>
+        <v>11.63618277773121</v>
       </c>
       <c r="H22">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I22">
-        <v>15.98496883486915</v>
+        <v>27.42102366619841</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>7.229556016296027</v>
+        <v>12.40176497476314</v>
       </c>
       <c r="C23">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D23">
-        <v>1.798295608818888</v>
+        <v>3.084842201298359</v>
       </c>
       <c r="E23">
-        <v>1.823571162172516</v>
+        <v>3.12820053085445</v>
       </c>
       <c r="F23">
-        <v>1.217035551942222</v>
+        <v>2.087733859049822</v>
       </c>
       <c r="G23">
-        <v>5.755495996427255</v>
+        <v>9.873124781105266</v>
       </c>
       <c r="H23">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I23">
-        <v>18.17190819359711</v>
+        <v>31.17255527890995</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>8.559305220139059</v>
+        <v>14.68285071007897</v>
       </c>
       <c r="C24">
-        <v>0.4224257409587768</v>
+        <v>0.724639901378753</v>
       </c>
       <c r="D24">
-        <v>2.028846327898233</v>
+        <v>3.480334791208404</v>
       </c>
       <c r="E24">
-        <v>1.963845866955017</v>
+        <v>3.368831340920177</v>
       </c>
       <c r="F24">
-        <v>1.614173468891789</v>
+        <v>2.768994381476606</v>
       </c>
       <c r="G24">
-        <v>5.601330925094382</v>
+        <v>9.608666081611375</v>
       </c>
       <c r="H24">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="I24">
-        <v>20.36588636967883</v>
+        <v>34.93616145862458</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>5.543169094947205</v>
+        <v>9.508893793194002</v>
       </c>
       <c r="C25">
-        <v>0.2816171606391846</v>
+        <v>0.4830932675858352</v>
       </c>
       <c r="D25">
-        <v>2.12106661552997</v>
+        <v>3.638531827172423</v>
       </c>
       <c r="E25">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="F25">
-        <v>1.498875363970947</v>
+        <v>2.571209068513992</v>
       </c>
       <c r="G25">
-        <v>5.961049424871087</v>
+        <v>10.22573638043045</v>
       </c>
       <c r="H25">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="I25">
-        <v>16.63555462235377</v>
+        <v>28.53705513675047</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>4.559867959538369</v>
+        <v>7.822113919952791</v>
       </c>
       <c r="C26">
-        <v>0.3801831668628991</v>
+        <v>0.6521759112408776</v>
       </c>
       <c r="D26">
-        <v>1.798295608818888</v>
+        <v>3.084842201298359</v>
       </c>
       <c r="E26">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="F26">
-        <v>1.844769678733474</v>
+        <v>3.164565007401836</v>
       </c>
       <c r="G26">
-        <v>4.881893925540976</v>
+        <v>8.374525483973216</v>
       </c>
       <c r="H26">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="I26">
-        <v>14.06179327358367</v>
+        <v>24.12195920601455</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>4.544583485930977</v>
+        <v>7.795894543684789</v>
       </c>
       <c r="C27">
-        <v>0.4365065989907361</v>
+        <v>0.7487945647580446</v>
       </c>
       <c r="D27">
-        <v>1.337194170660199</v>
+        <v>2.293857021478267</v>
       </c>
       <c r="E27">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="F27">
-        <v>2.011311385841357</v>
+        <v>3.450254903903391</v>
       </c>
       <c r="G27">
-        <v>4.933282282651931</v>
+        <v>8.462678383804512</v>
       </c>
       <c r="H27">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I27">
-        <v>13.87776640527289</v>
+        <v>23.80627481755588</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>4.274557785533734</v>
+        <v>7.332685562950156</v>
       </c>
       <c r="C28">
-        <v>0.3801831668628991</v>
+        <v>0.6521759112408776</v>
       </c>
       <c r="D28">
-        <v>1.429414458291937</v>
+        <v>2.452054057442285</v>
       </c>
       <c r="E28">
-        <v>0.7948899937675069</v>
+        <v>1.363574590372453</v>
       </c>
       <c r="F28">
-        <v>1.498875363970947</v>
+        <v>2.571209068513992</v>
       </c>
       <c r="G28">
-        <v>3.854126783321822</v>
+        <v>6.611467487347278</v>
       </c>
       <c r="H28">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="I28">
-        <v>12.43314334573921</v>
+        <v>21.3281315372388</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>5.283333043621555</v>
+        <v>9.063164396638033</v>
       </c>
       <c r="C29">
-        <v>0.3661023088309399</v>
+        <v>0.6280212478615858</v>
       </c>
       <c r="D29">
-        <v>1.70607532118715</v>
+        <v>2.926645165334339</v>
       </c>
       <c r="E29">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="F29">
-        <v>1.678227971625591</v>
+        <v>2.878875110900282</v>
       </c>
       <c r="G29">
-        <v>4.881893925540976</v>
+        <v>8.374525483973216</v>
       </c>
       <c r="H29">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I29">
-        <v>14.67431147035649</v>
+        <v>25.17268855952109</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>4.605721380360541</v>
+        <v>7.900772048756783</v>
       </c>
       <c r="C30">
-        <v>0.4928300311185729</v>
+        <v>0.8454132182752118</v>
       </c>
       <c r="D30">
-        <v>1.613855033555412</v>
+        <v>2.768448129370321</v>
       </c>
       <c r="E30">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="F30">
-        <v>1.460442662330667</v>
+        <v>2.505280630859787</v>
       </c>
       <c r="G30">
-        <v>4.316621997320442</v>
+        <v>7.404843585828947</v>
       </c>
       <c r="H30">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="I30">
-        <v>13.251665717806</v>
+        <v>22.73224571272572</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>5.762246549986481</v>
+        <v>9.884704853035313</v>
       </c>
       <c r="C31">
-        <v>0.4787491730866137</v>
+        <v>0.82125855489592</v>
       </c>
       <c r="D31">
-        <v>2.305507190793447</v>
+        <v>3.954925899100459</v>
       </c>
       <c r="E31">
-        <v>0.7948899937675069</v>
+        <v>1.363574590372453</v>
       </c>
       <c r="F31">
-        <v>1.357955457956585</v>
+        <v>2.329471463781907</v>
       </c>
       <c r="G31">
-        <v>3.854126783321822</v>
+        <v>6.611467487347278</v>
       </c>
       <c r="H31">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I31">
-        <v>14.60374909741005</v>
+        <v>25.05164406337627</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>7.168418121866465</v>
+        <v>12.29688746969114</v>
       </c>
       <c r="C32">
-        <v>0.3661023088309399</v>
+        <v>0.6280212478615858</v>
       </c>
       <c r="D32">
-        <v>3.089379635663218</v>
+        <v>5.299600704794615</v>
       </c>
       <c r="E32">
-        <v>1.12219763826001</v>
+        <v>1.925046480525815</v>
       </c>
       <c r="F32">
-        <v>1.434820861237146</v>
+        <v>2.461328339090318</v>
       </c>
       <c r="G32">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="H32">
-        <v>0.3519176394831318</v>
+        <v>0.6036885039005851</v>
       </c>
       <c r="I32">
-        <v>16.61613763199837</v>
+        <v>28.50374673574188</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>8.559305220139059</v>
+        <v>14.68285071007897</v>
       </c>
       <c r="C33">
-        <v>0.3661023088309399</v>
+        <v>0.6280212478615858</v>
       </c>
       <c r="D33">
-        <v>2.028846327898233</v>
+        <v>3.480334791208404</v>
       </c>
       <c r="E33">
-        <v>1.683296457390015</v>
+        <v>2.887569720788723</v>
       </c>
       <c r="F33">
-        <v>0.9480066404602573</v>
+        <v>1.626234795470388</v>
       </c>
       <c r="G33">
-        <v>2.36386442710405</v>
+        <v>4.055033392239663</v>
       </c>
       <c r="H33">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I33">
-        <v>16.04996927881773</v>
+        <v>27.53252708733362</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>8.875184341358482</v>
+        <v>15.2247178196176</v>
       </c>
       <c r="C34">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D34">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="E34">
-        <v>2.104120571737519</v>
+        <v>3.609462150985903</v>
       </c>
       <c r="F34">
-        <v>0.5764905246042106</v>
+        <v>0.9889265648130738</v>
       </c>
       <c r="G34">
-        <v>2.723582926880754</v>
+        <v>4.672103691058742</v>
       </c>
       <c r="H34">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I34">
-        <v>15.88495166575326</v>
+        <v>27.24945166066715</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>5.955849882346763</v>
+        <v>10.21681695242996</v>
       </c>
       <c r="C35">
-        <v>0.2252937285113476</v>
+        <v>0.3864746140686682</v>
       </c>
       <c r="D35">
-        <v>0.6916521572380339</v>
+        <v>1.186477769730138</v>
       </c>
       <c r="E35">
-        <v>1.730054692317516</v>
+        <v>2.967779990810631</v>
       </c>
       <c r="F35">
-        <v>0.6021123256977309</v>
+        <v>1.032878856582544</v>
       </c>
       <c r="G35">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="H35">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I35">
-        <v>12.31340118701764</v>
+        <v>21.12272278092123</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>5.054065939510683</v>
+        <v>8.669873752618061</v>
       </c>
       <c r="C36">
-        <v>0.253455444575266</v>
+        <v>0.4347839408272517</v>
       </c>
       <c r="D36">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="E36">
-        <v>1.449505282752513</v>
+        <v>2.486518370679177</v>
       </c>
       <c r="F36">
-        <v>0.4868142207768889</v>
+        <v>0.8350935436199292</v>
       </c>
       <c r="G36">
-        <v>3.956903497543737</v>
+        <v>6.787773287009869</v>
       </c>
       <c r="H36">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I36">
-        <v>12.33668861567046</v>
+        <v>21.16267063060491</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>4.310221557284311</v>
+        <v>7.393864107575484</v>
       </c>
       <c r="C37">
-        <v>0.2675363026072254</v>
+        <v>0.4589386042065435</v>
       </c>
       <c r="D37">
-        <v>0.9683130201332473</v>
+        <v>1.661068877622193</v>
       </c>
       <c r="E37">
-        <v>0.6546152889850058</v>
+        <v>1.122943780306726</v>
       </c>
       <c r="F37">
-        <v>0.3074616131222456</v>
+        <v>0.5274275012336394</v>
       </c>
       <c r="G37">
-        <v>2.261087712882136</v>
+        <v>3.878727592577069</v>
       </c>
       <c r="I37">
-        <v>8.769235495014172</v>
+        <v>15.04297046352166</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.793378236600565</v>
+        <v>3.076406815445121</v>
       </c>
       <c r="C38">
-        <v>0.2252937285113476</v>
+        <v>0.3864746140686682</v>
       </c>
       <c r="D38">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E38">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="F38">
-        <v>0.2305962098416842</v>
+        <v>0.3955706259252295</v>
       </c>
       <c r="G38">
-        <v>1.490262356217772</v>
+        <v>2.556434095107613</v>
       </c>
       <c r="I38">
-        <v>4.438959781748981</v>
+        <v>7.614704944755566</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.151430345090135</v>
+        <v>1.975193012189196</v>
       </c>
       <c r="C39">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D39">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E39">
-        <v>0.2805494095650025</v>
+        <v>0.4812616201314538</v>
       </c>
       <c r="F39">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="G39">
-        <v>1.438873999106814</v>
+        <v>2.468281195276317</v>
       </c>
       <c r="I39">
-        <v>3.251210012418034</v>
+        <v>5.577208664919235</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.161619994161729</v>
+        <v>1.992672596367861</v>
       </c>
       <c r="C40">
-        <v>0.253455444575266</v>
+        <v>0.4347839408272517</v>
       </c>
       <c r="D40">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="E40">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="F40">
-        <v>0.1921635082014035</v>
+        <v>0.3296421882710247</v>
       </c>
       <c r="G40">
-        <v>2.106922641549263</v>
+        <v>3.614268893083176</v>
       </c>
       <c r="I40">
-        <v>4.133689520611902</v>
+        <v>7.091036544666695</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.5502410498660824</v>
+        <v>0.9438975456479342</v>
       </c>
       <c r="C41">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="D41">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="E41">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="F41">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="G41">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="I41">
-        <v>3.432802362271145</v>
+        <v>5.888716818257681</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.5400514007944883</v>
+        <v>0.9264179614692691</v>
       </c>
       <c r="C42">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F42">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="G42">
-        <v>1.901369213105432</v>
+        <v>3.261657293757989</v>
       </c>
       <c r="I42">
-        <v>2.801284460999636</v>
+        <v>4.805394886555227</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.4483445591501413</v>
+        <v>0.7691017038612802</v>
       </c>
       <c r="C43">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D43">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="E43">
-        <v>0.1402747047825013</v>
+        <v>0.2406308100657269</v>
       </c>
       <c r="F43">
-        <v>0.1921635082014035</v>
+        <v>0.3296421882710247</v>
       </c>
       <c r="G43">
-        <v>2.569417855547881</v>
+        <v>4.40764499156485</v>
       </c>
       <c r="I43">
-        <v>3.523038493785429</v>
+        <v>6.043510182158517</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.7285599086189796</v>
+        <v>1.24979026877458</v>
       </c>
       <c r="C44">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D44">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="E44">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="F44">
-        <v>0.3202725136690058</v>
+        <v>0.5494036471183743</v>
       </c>
       <c r="G44">
-        <v>3.545796640656077</v>
+        <v>6.082550088359494</v>
       </c>
       <c r="I44">
-        <v>5.050587726109295</v>
+        <v>8.663907136543871</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>2.104162533284186</v>
+        <v>3.609534132894415</v>
       </c>
       <c r="C45">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D45">
-        <v>0.5994318696062958</v>
+        <v>1.02828073376612</v>
       </c>
       <c r="E45">
-        <v>0.8416482286950077</v>
+        <v>1.443784860394361</v>
       </c>
       <c r="F45">
-        <v>0.5764905246042106</v>
+        <v>0.9889265648130738</v>
       </c>
       <c r="G45">
-        <v>7.451311781088859</v>
+        <v>12.78217047553806</v>
       </c>
       <c r="H45">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I45">
-        <v>11.68266705971911</v>
+        <v>20.04074535510325</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>4.76875576550605</v>
+        <v>8.180445395615429</v>
       </c>
       <c r="C46">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="D46">
-        <v>1.429414458291937</v>
+        <v>2.452054057442285</v>
       </c>
       <c r="E46">
-        <v>2.24439527652002</v>
+        <v>3.85009296105163</v>
       </c>
       <c r="F46">
-        <v>1.217035551942222</v>
+        <v>2.087733859049822</v>
       </c>
       <c r="G46">
-        <v>8.22213713775322</v>
+        <v>14.10446397300752</v>
       </c>
       <c r="H46">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I46">
-        <v>17.99939168685571</v>
+        <v>30.87661605856897</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>6.91367689507661</v>
+        <v>11.85989786522451</v>
       </c>
       <c r="C47">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D47">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="E47">
-        <v>1.870329397100017</v>
+        <v>3.208410800876358</v>
       </c>
       <c r="F47">
-        <v>1.127359248114901</v>
+        <v>1.933900837856678</v>
       </c>
       <c r="G47">
-        <v>5.190224068206722</v>
+        <v>8.903442882960997</v>
       </c>
       <c r="H47">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I47">
-        <v>16.72322565847397</v>
+        <v>28.6874482705205</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>7.820555662448488</v>
+        <v>13.41558085712573</v>
       </c>
       <c r="C48">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D48">
-        <v>1.521634745923674</v>
+        <v>2.610251093406303</v>
       </c>
       <c r="E48">
-        <v>1.496263517680013</v>
+        <v>2.566728640701087</v>
       </c>
       <c r="F48">
-        <v>1.293900955222784</v>
+        <v>2.219590734358232</v>
       </c>
       <c r="G48">
-        <v>4.676340497097144</v>
+        <v>8.021913884648027</v>
       </c>
       <c r="H48">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I48">
-        <v>17.05610133931712</v>
+        <v>29.2584717123924</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>5.614496638448361</v>
+        <v>9.631250882444663</v>
       </c>
       <c r="C49">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="D49">
-        <v>1.752185465003019</v>
+        <v>3.00574368331635</v>
       </c>
       <c r="E49">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="F49">
-        <v>1.62698436943855</v>
+        <v>2.790970527361342</v>
       </c>
       <c r="G49">
-        <v>6.320767924647789</v>
+        <v>10.84280667924953</v>
       </c>
       <c r="H49">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I49">
-        <v>16.63276410098362</v>
+        <v>28.53226820514478</v>
       </c>
     </row>
   </sheetData>
